--- a/biology/Zoologie/Geodia_chathamensis/Geodia_chathamensis.xlsx
+++ b/biology/Zoologie/Geodia_chathamensis/Geodia_chathamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geodia chathamensis est une espèce d'éponges de la famille des Geodiidae présente dans l'océan Pacifique sud au large de la Nouvelle-Zélande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geodia chathamensis est une espèce d'éponges de la famille des Geodiidae présente dans l'océan Pacifique sud au large de la Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite par les spongiologues Carina Sim-Smith et Michelle Kelly en 2015. Elle est nommée en référence aux îles Chatham, situées à l'est de la Nouvelle-Zélande sur le plateau de Chatham[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite par les spongiologues Carina Sim-Smith et Michelle Kelly en 2015. Elle est nommée en référence aux îles Chatham, situées à l'est de la Nouvelle-Zélande sur le plateau de Chatham.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype a des dimensions de 100x80x55 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype a des dimensions de 100x80x55 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de l'espèce et sa seule localisation connue se situe à l'est des îles Chatham, situées sur le plateau de Chatham et à 800 km à l'est de l'île du Sud, une des deux îles principales de la Nouvelle-Zélande. L'espèce est présente d'une profondeur de 760 à 1085 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de l'espèce et sa seule localisation connue se situe à l'est des îles Chatham, situées sur le plateau de Chatham et à 800 km à l'est de l'île du Sud, une des deux îles principales de la Nouvelle-Zélande. L'espèce est présente d'une profondeur de 760 à 1085 m.
 </t>
         </is>
       </c>
